--- a/score_results/M_results2.xlsx
+++ b/score_results/M_results2.xlsx
@@ -500,25 +500,25 @@
         <v>231.0926399248401</v>
       </c>
       <c r="D2" t="n">
-        <v>9258.034544291701</v>
+        <v>965.174062421449</v>
       </c>
       <c r="E2" t="n">
-        <v>182.1099263243608</v>
+        <v>171.4863304926004</v>
       </c>
       <c r="F2" t="n">
         <v>18366.77976124748</v>
       </c>
       <c r="G2" t="n">
-        <v>2921.24045562205</v>
+        <v>9319.055474224335</v>
       </c>
       <c r="H2" t="n">
-        <v>18366.90918786444</v>
+        <v>18366.47634519634</v>
       </c>
       <c r="I2" t="n">
         <v>17093.30501060439</v>
       </c>
       <c r="J2" t="n">
-        <v>17.73652542865123</v>
+        <v>16.55224359693916</v>
       </c>
     </row>
     <row r="3">
@@ -536,19 +536,19 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
       </c>
       <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -572,25 +572,25 @@
         <v>311.6724404600549</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.389713605386</v>
+        <v>8180.697040486783</v>
       </c>
       <c r="E4" t="n">
-        <v>20.90385184467873</v>
+        <v>88.01356981207893</v>
       </c>
       <c r="F4" t="n">
         <v>15871.23797097186</v>
       </c>
       <c r="G4" t="n">
-        <v>2643.164600776073</v>
+        <v>4536.627331075615</v>
       </c>
       <c r="H4" t="n">
-        <v>15871.19617185172</v>
+        <v>15869.32595877871</v>
       </c>
       <c r="I4" t="n">
         <v>14792.02485663494</v>
       </c>
       <c r="J4" t="n">
-        <v>19.81395951867493</v>
+        <v>18.39834023576219</v>
       </c>
     </row>
     <row r="5">
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -644,25 +644,25 @@
         <v>601.6780786181586</v>
       </c>
       <c r="D6" t="n">
-        <v>14196.03724017595</v>
+        <v>10524.09144164148</v>
       </c>
       <c r="E6" t="n">
-        <v>59.48155472501903</v>
+        <v>70.3888231886264</v>
       </c>
       <c r="F6" t="n">
         <v>22988.18357483107</v>
       </c>
       <c r="G6" t="n">
-        <v>10904.14251352184</v>
+        <v>21363.88675340113</v>
       </c>
       <c r="H6" t="n">
-        <v>22982.92572225885</v>
+        <v>22987.88803226099</v>
       </c>
       <c r="I6" t="n">
         <v>22146.06325399024</v>
       </c>
       <c r="J6" t="n">
-        <v>23.16169945686741</v>
+        <v>20.17123896300698</v>
       </c>
     </row>
     <row r="7">
@@ -680,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -716,25 +716,25 @@
         <v>2614.386479607595</v>
       </c>
       <c r="D8" t="n">
-        <v>2694.157375085137</v>
+        <v>3347.216436610305</v>
       </c>
       <c r="E8" t="n">
-        <v>815.2480580634417</v>
+        <v>497.5088740108732</v>
       </c>
       <c r="F8" t="n">
         <v>14909.10953297456</v>
       </c>
       <c r="G8" t="n">
-        <v>12900.28642467258</v>
+        <v>10054.97049529302</v>
       </c>
       <c r="H8" t="n">
-        <v>14908.6801686659</v>
+        <v>14904.95023138208</v>
       </c>
       <c r="I8" t="n">
         <v>12587.83743736413</v>
       </c>
       <c r="J8" t="n">
-        <v>22.31920024964334</v>
+        <v>19.11849203632174</v>
       </c>
     </row>
     <row r="9">
@@ -761,13 +761,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>8</v>
@@ -788,25 +788,25 @@
         <v>0.2076515831822737</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4157401026622776</v>
+        <v>0.2478446043021748</v>
       </c>
       <c r="E10" t="n">
-        <v>3.237095260636309</v>
+        <v>49.66664235799098</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5837217448411385</v>
+        <v>0.5837217448411384</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4780877664765873</v>
+        <v>0.7808563327320233</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5836682062969287</v>
+        <v>0.5838730561588013</v>
       </c>
       <c r="I10" t="n">
         <v>0.6005025134404716</v>
       </c>
       <c r="J10" t="n">
-        <v>6.189862659204619</v>
+        <v>10.2664426400495</v>
       </c>
     </row>
     <row r="11">
@@ -827,22 +827,22 @@
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -860,25 +860,25 @@
         <v>0.1292849006093085</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4199743992968354</v>
+        <v>0.4847007607194453</v>
       </c>
       <c r="E12" t="n">
-        <v>9.216469828135827</v>
+        <v>3.604368985692117</v>
       </c>
       <c r="F12" t="n">
         <v>0.5974124791765755</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4650212147100217</v>
+        <v>1.728667121011737</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5975320405078098</v>
+        <v>0.5973109462064091</v>
       </c>
       <c r="I12" t="n">
         <v>0.6187236461566535</v>
       </c>
       <c r="J12" t="n">
-        <v>6.414658558761718</v>
+        <v>7.302602902961095</v>
       </c>
     </row>
     <row r="13">
@@ -899,22 +899,22 @@
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
         <v>4</v>
       </c>
       <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
         <v>3</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>5</v>
       </c>
-      <c r="I13" t="n">
-        <v>6</v>
-      </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -932,25 +932,25 @@
         <v>0.2987660239404572</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5389630040302643</v>
+        <v>0.5308245031333757</v>
       </c>
       <c r="E14" t="n">
-        <v>2.875600819185789</v>
+        <v>2.173699394861987</v>
       </c>
       <c r="F14" t="n">
         <v>0.5745665827421106</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5204686963425699</v>
+        <v>0.5614073614300018</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5754045419685526</v>
+        <v>0.5748312877698369</v>
       </c>
       <c r="I14" t="n">
         <v>0.5845371877622346</v>
       </c>
       <c r="J14" t="n">
-        <v>8.288253317414426</v>
+        <v>7.444740771158332</v>
       </c>
     </row>
     <row r="15">
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -977,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>5</v>
@@ -1004,25 +1004,25 @@
         <v>0.3713657725490382</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3946919458054508</v>
+        <v>0.4234447655067306</v>
       </c>
       <c r="E16" t="n">
-        <v>51.76493948812871</v>
+        <v>274.5520720472799</v>
       </c>
       <c r="F16" t="n">
         <v>0.6198205884132394</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5482252344656239</v>
+        <v>0.7802287428188134</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6197933833524213</v>
+        <v>0.6190490248894251</v>
       </c>
       <c r="I16" t="n">
         <v>0.63951652888794</v>
       </c>
       <c r="J16" t="n">
-        <v>6.018445763861453</v>
+        <v>5.891022400017036</v>
       </c>
     </row>
     <row r="17">
@@ -1046,16 +1046,16 @@
         <v>8</v>
       </c>
       <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
         <v>5</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6</v>
       </c>
       <c r="J17" t="n">
         <v>7</v>
@@ -1076,25 +1076,25 @@
         <v>0.8259859103000992</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5523134162186802</v>
+        <v>0.7524765467617124</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7341715939250091</v>
+        <v>0.7776669930934698</v>
       </c>
       <c r="F18" t="n">
         <v>0.5225715638388778</v>
       </c>
       <c r="G18" t="n">
-        <v>0.419186066928167</v>
+        <v>0.5021929581960529</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5225611130361335</v>
+        <v>0.5225344409297804</v>
       </c>
       <c r="I18" t="n">
         <v>0.4981197424369773</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4141852016601534</v>
+        <v>0.3823309925613887</v>
       </c>
     </row>
     <row r="19">
@@ -1121,13 +1121,13 @@
         <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
         <v>8</v>
@@ -1148,25 +1148,25 @@
         <v>0.8838721420890318</v>
       </c>
       <c r="D20" t="n">
-        <v>0.641514432601634</v>
+        <v>0.526801847114831</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8149581003128901</v>
+        <v>0.7152030996004</v>
       </c>
       <c r="F20" t="n">
         <v>0.5171512165180602</v>
       </c>
       <c r="G20" t="n">
-        <v>0.556761184322085</v>
+        <v>0.4777703340991549</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5171121148925037</v>
+        <v>0.5170390082527155</v>
       </c>
       <c r="I20" t="n">
         <v>0.4871854944600418</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4003565171851586</v>
+        <v>0.3698122447837234</v>
       </c>
     </row>
     <row r="21">
@@ -1190,16 +1190,16 @@
         <v>2</v>
       </c>
       <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7</v>
+      </c>
+      <c r="H21" t="n">
         <v>5</v>
       </c>
-      <c r="G21" t="n">
-        <v>4</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>6</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7</v>
       </c>
       <c r="J21" t="n">
         <v>8</v>
@@ -1220,25 +1220,25 @@
         <v>0.5985638023329356</v>
       </c>
       <c r="D22" t="n">
-        <v>0.44214115220544</v>
+        <v>0.5205790735174552</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7620984075086435</v>
+        <v>0.7829760696669534</v>
       </c>
       <c r="F22" t="n">
         <v>0.5235109048734028</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4063527249827822</v>
+        <v>0.5070050331518996</v>
       </c>
       <c r="H22" t="n">
-        <v>0.52357654302484</v>
+        <v>0.5234750999857599</v>
       </c>
       <c r="I22" t="n">
         <v>0.507108745308661</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4025092420106558</v>
+        <v>0.3707406254098287</v>
       </c>
     </row>
     <row r="23">
@@ -1256,22 +1256,22 @@
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
         <v>7</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
         <v>8</v>
@@ -1292,25 +1292,25 @@
         <v>0.7680035326408844</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4638086040532299</v>
+        <v>0.6875644812712097</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7901236827523376</v>
+        <v>0.8061692604910449</v>
       </c>
       <c r="F24" t="n">
         <v>0.5322251939238014</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5390393525550018</v>
+        <v>0.5330205006846791</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5320037031368519</v>
+        <v>0.5333943144955179</v>
       </c>
       <c r="I24" t="n">
         <v>0.4839964372574472</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4006100718114284</v>
+        <v>0.3647302633347425</v>
       </c>
     </row>
     <row r="25">
@@ -1328,22 +1328,22 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
+      <c r="H25" t="n">
         <v>4</v>
       </c>
-      <c r="G25" t="n">
-        <v>3</v>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
         <v>8</v>

--- a/score_results/M_results2.xlsx
+++ b/score_results/M_results2.xlsx
@@ -503,22 +503,22 @@
         <v>965.174062421449</v>
       </c>
       <c r="E2" t="n">
-        <v>171.4863304926004</v>
+        <v>240.960156874594</v>
       </c>
       <c r="F2" t="n">
         <v>18366.77976124748</v>
       </c>
       <c r="G2" t="n">
-        <v>9319.055474224335</v>
+        <v>2921.24045562205</v>
       </c>
       <c r="H2" t="n">
-        <v>18366.47634519634</v>
+        <v>18365.90143416737</v>
       </c>
       <c r="I2" t="n">
         <v>17093.30501060439</v>
       </c>
       <c r="J2" t="n">
-        <v>16.55224359693916</v>
+        <v>37.09461883244001</v>
       </c>
     </row>
     <row r="3">
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -575,22 +575,22 @@
         <v>8180.697040486783</v>
       </c>
       <c r="E4" t="n">
-        <v>88.01356981207893</v>
+        <v>147.2627518821191</v>
       </c>
       <c r="F4" t="n">
         <v>15871.23797097186</v>
       </c>
       <c r="G4" t="n">
-        <v>4536.627331075615</v>
+        <v>2643.164600776073</v>
       </c>
       <c r="H4" t="n">
-        <v>15869.32595877871</v>
+        <v>15871.18008387363</v>
       </c>
       <c r="I4" t="n">
-        <v>14792.02485663494</v>
+        <v>14799.13685892254</v>
       </c>
       <c r="J4" t="n">
-        <v>18.39834023576219</v>
+        <v>33.79104298634872</v>
       </c>
     </row>
     <row r="5">
@@ -647,22 +647,22 @@
         <v>10524.09144164148</v>
       </c>
       <c r="E6" t="n">
-        <v>70.3888231886264</v>
+        <v>33.55320618684237</v>
       </c>
       <c r="F6" t="n">
         <v>22988.18357483107</v>
       </c>
       <c r="G6" t="n">
-        <v>21363.88675340113</v>
+        <v>10954.68444524712</v>
       </c>
       <c r="H6" t="n">
-        <v>22987.88803226099</v>
+        <v>22985.08077597636</v>
       </c>
       <c r="I6" t="n">
-        <v>22146.06325399024</v>
+        <v>22162.12165107952</v>
       </c>
       <c r="J6" t="n">
-        <v>20.17123896300698</v>
+        <v>37.45757610769792</v>
       </c>
     </row>
     <row r="7">
@@ -683,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -698,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -719,22 +719,22 @@
         <v>3347.216436610305</v>
       </c>
       <c r="E8" t="n">
-        <v>497.5088740108732</v>
+        <v>704.6223731775749</v>
       </c>
       <c r="F8" t="n">
         <v>14909.10953297456</v>
       </c>
       <c r="G8" t="n">
-        <v>10054.97049529302</v>
+        <v>13619.60953608398</v>
       </c>
       <c r="H8" t="n">
-        <v>14904.95023138208</v>
+        <v>14908.93410891023</v>
       </c>
       <c r="I8" t="n">
-        <v>12587.83743736413</v>
+        <v>12647.50317169796</v>
       </c>
       <c r="J8" t="n">
-        <v>19.11849203632174</v>
+        <v>28.65657693518191</v>
       </c>
     </row>
     <row r="9">
@@ -761,13 +761,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>8</v>
@@ -791,22 +791,22 @@
         <v>0.2478446043021748</v>
       </c>
       <c r="E10" t="n">
-        <v>49.66664235799098</v>
+        <v>3.595729415112439</v>
       </c>
       <c r="F10" t="n">
         <v>0.5837217448411384</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7808563327320233</v>
+        <v>0.4780877664765873</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5838730561588013</v>
+        <v>0.5836687988274502</v>
       </c>
       <c r="I10" t="n">
         <v>0.6005025134404716</v>
       </c>
       <c r="J10" t="n">
-        <v>10.2664426400495</v>
+        <v>7.826833086107753</v>
       </c>
     </row>
     <row r="11">
@@ -827,22 +827,22 @@
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
         <v>3</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -863,22 +863,22 @@
         <v>0.4847007607194453</v>
       </c>
       <c r="E12" t="n">
-        <v>3.604368985692117</v>
+        <v>2.389578120881558</v>
       </c>
       <c r="F12" t="n">
         <v>0.5974124791765755</v>
       </c>
       <c r="G12" t="n">
-        <v>1.728667121011737</v>
+        <v>0.4650212147100217</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5973109462064091</v>
+        <v>0.5972175614212261</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6187236461566535</v>
+        <v>0.6186531446071419</v>
       </c>
       <c r="J12" t="n">
-        <v>7.302602902961095</v>
+        <v>6.661376104889651</v>
       </c>
     </row>
     <row r="13">
@@ -896,22 +896,22 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
       </c>
       <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
         <v>4</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5</v>
       </c>
       <c r="J13" t="n">
         <v>8</v>
@@ -935,22 +935,22 @@
         <v>0.5308245031333757</v>
       </c>
       <c r="E14" t="n">
-        <v>2.173699394861987</v>
+        <v>6.334825874678329</v>
       </c>
       <c r="F14" t="n">
         <v>0.5745665827421106</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5614073614300018</v>
+        <v>0.5208709523929372</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5748312877698369</v>
+        <v>0.5753419893543253</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5845371877622346</v>
+        <v>0.5844656992862611</v>
       </c>
       <c r="J14" t="n">
-        <v>7.444740771158332</v>
+        <v>2420.385797469347</v>
       </c>
     </row>
     <row r="15">
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -977,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>5</v>
@@ -1007,22 +1007,22 @@
         <v>0.4234447655067306</v>
       </c>
       <c r="E16" t="n">
-        <v>274.5520720472799</v>
+        <v>3.626287532993624</v>
       </c>
       <c r="F16" t="n">
         <v>0.6198205884132394</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7802287428188134</v>
+        <v>0.563531095722268</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6190490248894251</v>
+        <v>0.6193787771036113</v>
       </c>
       <c r="I16" t="n">
-        <v>0.63951652888794</v>
+        <v>0.6396345911076623</v>
       </c>
       <c r="J16" t="n">
-        <v>5.891022400017036</v>
+        <v>5.762253409128043</v>
       </c>
     </row>
     <row r="17">
@@ -1043,22 +1043,22 @@
         <v>2</v>
       </c>
       <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" t="n">
         <v>8</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1079,22 +1079,22 @@
         <v>0.7524765467617124</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7776669930934698</v>
+        <v>0.4428158323601424</v>
       </c>
       <c r="F18" t="n">
         <v>0.5225715638388778</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5021929581960529</v>
+        <v>0.419186066928167</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5225344409297804</v>
+        <v>0.5226011609157959</v>
       </c>
       <c r="I18" t="n">
         <v>0.4981197424369773</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3823309925613887</v>
+        <v>0.1851532829000095</v>
       </c>
     </row>
     <row r="19">
@@ -1112,22 +1112,22 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
         <v>5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7</v>
       </c>
       <c r="J19" t="n">
         <v>8</v>
@@ -1151,22 +1151,22 @@
         <v>0.526801847114831</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7152030996004</v>
+        <v>0.4574995283651027</v>
       </c>
       <c r="F20" t="n">
         <v>0.5171512165180602</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4777703340991549</v>
+        <v>0.556761184322085</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5170390082527155</v>
+        <v>0.5172197840960374</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4871854944600418</v>
+        <v>0.4872668640060863</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3698122447837234</v>
+        <v>0.1721254135354243</v>
       </c>
     </row>
     <row r="21">
@@ -1187,16 +1187,16 @@
         <v>3</v>
       </c>
       <c r="E21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
         <v>2</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>4</v>
-      </c>
-      <c r="G21" t="n">
-        <v>7</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
       </c>
       <c r="I21" t="n">
         <v>6</v>
@@ -1223,22 +1223,22 @@
         <v>0.5205790735174552</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7829760696669534</v>
+        <v>0.6984634216491575</v>
       </c>
       <c r="F22" t="n">
         <v>0.5235109048734028</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5070050331518996</v>
+        <v>0.4064193282122733</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5234750999857599</v>
+        <v>0.5235120574513038</v>
       </c>
       <c r="I22" t="n">
-        <v>0.507108745308661</v>
+        <v>0.5074138722658265</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3707406254098287</v>
+        <v>0.1859883476466664</v>
       </c>
     </row>
     <row r="23">
@@ -1262,13 +1262,13 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
         <v>7</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
         <v>6</v>
@@ -1295,22 +1295,22 @@
         <v>0.6875644812712097</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8061692604910449</v>
+        <v>0.4470050869214944</v>
       </c>
       <c r="F24" t="n">
         <v>0.5322251939238014</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5330205006846791</v>
+        <v>0.5215668992935401</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5333943144955179</v>
+        <v>0.5322479669247927</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4839964372574472</v>
+        <v>0.4842840037780644</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3647302633347425</v>
+        <v>0.2015021671533816</v>
       </c>
     </row>
     <row r="25">
@@ -1325,25 +1325,25 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
         <v>2</v>
       </c>
-      <c r="D25" t="n">
-        <v>3</v>
-      </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
         <v>8</v>

--- a/score_results/M_results2.xlsx
+++ b/score_results/M_results2.xlsx
@@ -503,22 +503,22 @@
         <v>965.174062421449</v>
       </c>
       <c r="E2" t="n">
-        <v>240.960156874594</v>
+        <v>344.6256715544945</v>
       </c>
       <c r="F2" t="n">
         <v>18366.77976124748</v>
       </c>
       <c r="G2" t="n">
-        <v>2921.24045562205</v>
+        <v>3409.12601645223</v>
       </c>
       <c r="H2" t="n">
-        <v>18365.90143416737</v>
+        <v>18364.89076238557</v>
       </c>
       <c r="I2" t="n">
         <v>17093.30501060439</v>
       </c>
       <c r="J2" t="n">
-        <v>37.09461883244001</v>
+        <v>62.58582136174307</v>
       </c>
     </row>
     <row r="3">
@@ -575,22 +575,22 @@
         <v>8180.697040486783</v>
       </c>
       <c r="E4" t="n">
-        <v>147.2627518821191</v>
+        <v>34.82614850914815</v>
       </c>
       <c r="F4" t="n">
         <v>15871.23797097186</v>
       </c>
       <c r="G4" t="n">
-        <v>2643.164600776073</v>
+        <v>2962.413241404036</v>
       </c>
       <c r="H4" t="n">
-        <v>15871.18008387363</v>
+        <v>15871.14893265079</v>
       </c>
       <c r="I4" t="n">
-        <v>14799.13685892254</v>
+        <v>14792.02485663494</v>
       </c>
       <c r="J4" t="n">
-        <v>33.79104298634872</v>
+        <v>53.84909876463059</v>
       </c>
     </row>
     <row r="5">
@@ -611,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -647,22 +647,22 @@
         <v>10524.09144164148</v>
       </c>
       <c r="E6" t="n">
-        <v>33.55320618684237</v>
+        <v>65.11131889582782</v>
       </c>
       <c r="F6" t="n">
         <v>22988.18357483107</v>
       </c>
       <c r="G6" t="n">
-        <v>10954.68444524712</v>
+        <v>10876.14406952077</v>
       </c>
       <c r="H6" t="n">
-        <v>22985.08077597636</v>
+        <v>22982.23823390444</v>
       </c>
       <c r="I6" t="n">
         <v>22162.12165107952</v>
       </c>
       <c r="J6" t="n">
-        <v>37.45757610769792</v>
+        <v>63.35995868581202</v>
       </c>
     </row>
     <row r="7">
@@ -683,7 +683,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -698,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -719,7 +719,7 @@
         <v>3347.216436610305</v>
       </c>
       <c r="E8" t="n">
-        <v>704.6223731775749</v>
+        <v>238.9037819066008</v>
       </c>
       <c r="F8" t="n">
         <v>14909.10953297456</v>
@@ -728,13 +728,13 @@
         <v>13619.60953608398</v>
       </c>
       <c r="H8" t="n">
-        <v>14908.93410891023</v>
+        <v>14901.89792290411</v>
       </c>
       <c r="I8" t="n">
-        <v>12647.50317169796</v>
+        <v>12587.83743736413</v>
       </c>
       <c r="J8" t="n">
-        <v>28.65657693518191</v>
+        <v>40.76751174145396</v>
       </c>
     </row>
     <row r="9">
@@ -791,22 +791,22 @@
         <v>0.2478446043021748</v>
       </c>
       <c r="E10" t="n">
-        <v>3.595729415112439</v>
+        <v>0.6119184645794618</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5837217448411384</v>
+        <v>0.5837217448411385</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4780877664765873</v>
+        <v>0.4846781042111746</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5836687988274502</v>
+        <v>0.5839862061503002</v>
       </c>
       <c r="I10" t="n">
         <v>0.6005025134404716</v>
       </c>
       <c r="J10" t="n">
-        <v>7.826833086107753</v>
+        <v>5.719857191026533</v>
       </c>
     </row>
     <row r="11">
@@ -830,13 +830,13 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
         <v>6</v>
@@ -863,22 +863,22 @@
         <v>0.4847007607194453</v>
       </c>
       <c r="E12" t="n">
-        <v>2.389578120881558</v>
+        <v>5.424165397758139</v>
       </c>
       <c r="F12" t="n">
         <v>0.5974124791765755</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4650212147100217</v>
+        <v>0.4774844807713648</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5972175614212261</v>
+        <v>0.597191229856893</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6186531446071419</v>
+        <v>0.6187236461566535</v>
       </c>
       <c r="J12" t="n">
-        <v>6.661376104889651</v>
+        <v>13.60292239905178</v>
       </c>
     </row>
     <row r="13">
@@ -935,22 +935,22 @@
         <v>0.5308245031333757</v>
       </c>
       <c r="E14" t="n">
-        <v>6.334825874678329</v>
+        <v>1.77745452063909</v>
       </c>
       <c r="F14" t="n">
         <v>0.5745665827421106</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5208709523929372</v>
+        <v>0.5201716375795502</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5753419893543253</v>
+        <v>0.575459601364083</v>
       </c>
       <c r="I14" t="n">
         <v>0.5844656992862611</v>
       </c>
       <c r="J14" t="n">
-        <v>2420.385797469347</v>
+        <v>4.477427488611522</v>
       </c>
     </row>
     <row r="15">
@@ -1007,7 +1007,7 @@
         <v>0.4234447655067306</v>
       </c>
       <c r="E16" t="n">
-        <v>3.626287532993624</v>
+        <v>0.7359432496342576</v>
       </c>
       <c r="F16" t="n">
         <v>0.6198205884132394</v>
@@ -1016,13 +1016,13 @@
         <v>0.563531095722268</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6193787771036113</v>
+        <v>0.6214483929568949</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6396345911076623</v>
+        <v>0.63951652888794</v>
       </c>
       <c r="J16" t="n">
-        <v>5.762253409128043</v>
+        <v>6.807812053265605</v>
       </c>
     </row>
     <row r="17">
@@ -1046,13 +1046,13 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
         <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
         <v>6</v>
@@ -1079,22 +1079,22 @@
         <v>0.7524765467617124</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4428158323601424</v>
+        <v>0.8981099637966574</v>
       </c>
       <c r="F18" t="n">
         <v>0.5225715638388778</v>
       </c>
       <c r="G18" t="n">
-        <v>0.419186066928167</v>
+        <v>0.3977340408030547</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5226011609157959</v>
+        <v>0.5224140117564836</v>
       </c>
       <c r="I18" t="n">
         <v>0.4981197424369773</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1851532829000095</v>
+        <v>0.2461829155521945</v>
       </c>
     </row>
     <row r="19">
@@ -1109,13 +1109,13 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
         <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>4</v>
@@ -1124,10 +1124,10 @@
         <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
         <v>8</v>
@@ -1151,22 +1151,22 @@
         <v>0.526801847114831</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4574995283651027</v>
+        <v>0.8685669284450447</v>
       </c>
       <c r="F20" t="n">
         <v>0.5171512165180602</v>
       </c>
       <c r="G20" t="n">
-        <v>0.556761184322085</v>
+        <v>0.5280244411473882</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5172197840960374</v>
+        <v>0.5172246334190309</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4872668640060863</v>
+        <v>0.4871854944600418</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1721254135354243</v>
+        <v>0.2226441720278232</v>
       </c>
     </row>
     <row r="21">
@@ -1184,22 +1184,22 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" t="n">
         <v>3</v>
       </c>
-      <c r="E21" t="n">
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
         <v>7</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6</v>
       </c>
       <c r="J21" t="n">
         <v>8</v>
@@ -1223,22 +1223,22 @@
         <v>0.5205790735174552</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6984634216491575</v>
+        <v>0.8109818781860915</v>
       </c>
       <c r="F22" t="n">
         <v>0.5235109048734028</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4064193282122733</v>
+        <v>0.4060595044707756</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5235120574513038</v>
+        <v>0.5235863695066311</v>
       </c>
       <c r="I22" t="n">
         <v>0.5074138722658265</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1859883476466664</v>
+        <v>0.2330677859031966</v>
       </c>
     </row>
     <row r="23">
@@ -1295,7 +1295,7 @@
         <v>0.6875644812712097</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4470050869214944</v>
+        <v>0.8751554346424615</v>
       </c>
       <c r="F24" t="n">
         <v>0.5322251939238014</v>
@@ -1304,13 +1304,13 @@
         <v>0.5215668992935401</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5322479669247927</v>
+        <v>0.530656899880746</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4842840037780644</v>
+        <v>0.4839964372574472</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2015021671533816</v>
+        <v>0.212651655100754</v>
       </c>
     </row>
     <row r="25">
@@ -1325,25 +1325,25 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
         <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" t="n">
-        <v>7</v>
       </c>
       <c r="F25" t="n">
         <v>4</v>
       </c>
       <c r="G25" t="n">
+        <v>6</v>
+      </c>
+      <c r="H25" t="n">
         <v>5</v>
       </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
         <v>8</v>
